--- a/data/test/noorderpoort_scores.xlsx
+++ b/data/test/noorderpoort_scores.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maarten/Documents/projects/mbo-rekenen/data/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63B288B-F962-594B-9C49-BBE289FE9718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44838FD7-AF39-6E40-8D93-E7C4E53E95B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{D784F8FF-227D-A848-8709-E305D613E467}"/>
+    <workbookView xWindow="51200" yWindow="2600" windowWidth="30240" windowHeight="19000" xr2:uid="{D784F8FF-227D-A848-8709-E305D613E467}"/>
   </bookViews>
   <sheets>
     <sheet name="Nulmeting" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Verandering per student" sheetId="3" r:id="rId3"/>
     <sheet name="Verandering per onderdeel" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="138">
   <si>
     <t>Delen</t>
   </si>
@@ -426,9 +426,6 @@
   </si>
   <si>
     <t>qjpcocu@st.noorderpport.nl</t>
-  </si>
-  <si>
-    <t>Martine@neusvoornieuws.nl</t>
   </si>
   <si>
     <t>ikklinkhamer@st.noorderpoort.nl</t>
@@ -930,7 +927,7 @@
   <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+      <selection activeCell="A90" sqref="A90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -941,7 +938,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -962,7 +959,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>6</v>
@@ -1015,11 +1012,11 @@
         <v>3</v>
       </c>
       <c r="L2" s="5">
-        <f>SUM(B2:K2)</f>
+        <f t="shared" ref="L2:L33" si="0">SUM(B2:K2)</f>
         <v>36</v>
       </c>
       <c r="M2" s="6">
-        <f>10*L2/40</f>
+        <f t="shared" ref="M2:M33" si="1">10*L2/40</f>
         <v>9</v>
       </c>
     </row>
@@ -1058,11 +1055,11 @@
         <v>3</v>
       </c>
       <c r="L3" s="5">
-        <f>SUM(B3:K3)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M3" s="6">
-        <f>10*L3/40</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1101,11 +1098,11 @@
         <v>3</v>
       </c>
       <c r="L4" s="5">
-        <f>SUM(B4:K4)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="M4" s="6">
-        <f>10*L4/40</f>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
     </row>
@@ -1144,11 +1141,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="5">
-        <f>SUM(B5:K5)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="M5" s="6">
-        <f>10*L5/40</f>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
     </row>
@@ -1187,11 +1184,11 @@
         <v>3</v>
       </c>
       <c r="L6" s="5">
-        <f>SUM(B6:K6)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="M6" s="6">
-        <f>10*L6/40</f>
+        <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
     </row>
@@ -1230,11 +1227,11 @@
         <v>4</v>
       </c>
       <c r="L7" s="5">
-        <f>SUM(B7:K7)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="M7" s="6">
-        <f>10*L7/40</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1273,11 +1270,11 @@
         <v>3</v>
       </c>
       <c r="L8" s="5">
-        <f>SUM(B8:K8)</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="M8" s="6">
-        <f>10*L8/40</f>
+        <f t="shared" si="1"/>
         <v>9.75</v>
       </c>
     </row>
@@ -1316,11 +1313,11 @@
         <v>3</v>
       </c>
       <c r="L9" s="5">
-        <f>SUM(B9:K9)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="M9" s="6">
-        <f>10*L9/40</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -1359,11 +1356,11 @@
         <v>3</v>
       </c>
       <c r="L10" s="5">
-        <f>SUM(B10:K10)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="M10" s="6">
-        <f>10*L10/40</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -1402,11 +1399,11 @@
         <v>3</v>
       </c>
       <c r="L11" s="5">
-        <f>SUM(B11:K11)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="M11" s="6">
-        <f>10*L11/40</f>
+        <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
     </row>
@@ -1445,11 +1442,11 @@
         <v>4</v>
       </c>
       <c r="L12" s="5">
-        <f>SUM(B12:K12)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="M12" s="6">
-        <f>10*L12/40</f>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
     </row>
@@ -1488,11 +1485,11 @@
         <v>3</v>
       </c>
       <c r="L13" s="5">
-        <f>SUM(B13:K13)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="M13" s="6">
-        <f>10*L13/40</f>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
     </row>
@@ -1531,11 +1528,11 @@
         <v>3</v>
       </c>
       <c r="L14" s="5">
-        <f>SUM(B14:K14)</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="M14" s="6">
-        <f>10*L14/40</f>
+        <f t="shared" si="1"/>
         <v>7.25</v>
       </c>
     </row>
@@ -1574,11 +1571,11 @@
         <v>3</v>
       </c>
       <c r="L15" s="5">
-        <f>SUM(B15:K15)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="M15" s="6">
-        <f>10*L15/40</f>
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
     </row>
@@ -1617,11 +1614,11 @@
         <v>3</v>
       </c>
       <c r="L16" s="5">
-        <f>SUM(B16:K16)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="M16" s="6">
-        <f>10*L16/40</f>
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
     </row>
@@ -1660,11 +1657,11 @@
         <v>4</v>
       </c>
       <c r="L17" s="5">
-        <f>SUM(B17:K17)</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="M17" s="6">
-        <f>10*L17/40</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -1703,11 +1700,11 @@
         <v>3</v>
       </c>
       <c r="L18" s="5">
-        <f>SUM(B18:K18)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="M18" s="6">
-        <f>10*L18/40</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
@@ -1746,11 +1743,11 @@
         <v>2</v>
       </c>
       <c r="L19" s="5">
-        <f>SUM(B19:K19)</f>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="M19" s="6">
-        <f>10*L19/40</f>
+        <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
     </row>
@@ -1789,11 +1786,11 @@
         <v>3</v>
       </c>
       <c r="L20" s="5">
-        <f>SUM(B20:K20)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M20" s="6">
-        <f>10*L20/40</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1832,11 +1829,11 @@
         <v>3</v>
       </c>
       <c r="L21" s="5">
-        <f>SUM(B21:K21)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="M21" s="6">
-        <f>10*L21/40</f>
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
     </row>
@@ -1875,11 +1872,11 @@
         <v>4</v>
       </c>
       <c r="L22" s="5">
-        <f>SUM(B22:K22)</f>
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="M22" s="6">
-        <f>10*L22/40</f>
+        <f t="shared" si="1"/>
         <v>9.5</v>
       </c>
     </row>
@@ -1918,11 +1915,11 @@
         <v>2</v>
       </c>
       <c r="L23" s="5">
-        <f>SUM(B23:K23)</f>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="M23" s="6">
-        <f>10*L23/40</f>
+        <f t="shared" si="1"/>
         <v>7.75</v>
       </c>
     </row>
@@ -1961,11 +1958,11 @@
         <v>3</v>
       </c>
       <c r="L24" s="5">
-        <f>SUM(B24:K24)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="M24" s="6">
-        <f>10*L24/40</f>
+        <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
     </row>
@@ -2004,11 +2001,11 @@
         <v>4</v>
       </c>
       <c r="L25" s="5">
-        <f>SUM(B25:K25)</f>
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="M25" s="6">
-        <f>10*L25/40</f>
+        <f t="shared" si="1"/>
         <v>9.25</v>
       </c>
     </row>
@@ -2047,11 +2044,11 @@
         <v>3</v>
       </c>
       <c r="L26" s="5">
-        <f>SUM(B26:K26)</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="M26" s="6">
-        <f>10*L26/40</f>
+        <f t="shared" si="1"/>
         <v>8.5</v>
       </c>
     </row>
@@ -2090,11 +2087,11 @@
         <v>2</v>
       </c>
       <c r="L27" s="5">
-        <f>SUM(B27:K27)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M27" s="6">
-        <f>10*L27/40</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2133,11 +2130,11 @@
         <v>2</v>
       </c>
       <c r="L28" s="5">
-        <f>SUM(B28:K28)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M28" s="6">
-        <f>10*L28/40</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2176,11 +2173,11 @@
         <v>3</v>
       </c>
       <c r="L29" s="5">
-        <f>SUM(B29:K29)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="M29" s="6">
-        <f>10*L29/40</f>
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
     </row>
@@ -2219,11 +2216,11 @@
         <v>4</v>
       </c>
       <c r="L30" s="5">
-        <f>SUM(B30:K30)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="M30" s="6">
-        <f>10*L30/40</f>
+        <f t="shared" si="1"/>
         <v>8.75</v>
       </c>
     </row>
@@ -2262,11 +2259,11 @@
         <v>3</v>
       </c>
       <c r="L31" s="5">
-        <f>SUM(B31:K31)</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="M31" s="6">
-        <f>10*L31/40</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -2305,11 +2302,11 @@
         <v>3</v>
       </c>
       <c r="L32" s="5">
-        <f>SUM(B32:K32)</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="M32" s="6">
-        <f>10*L32/40</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -2348,11 +2345,11 @@
         <v>3</v>
       </c>
       <c r="L33" s="5">
-        <f>SUM(B33:K33)</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="M33" s="6">
-        <f>10*L33/40</f>
+        <f t="shared" si="1"/>
         <v>8.25</v>
       </c>
     </row>
@@ -2391,11 +2388,11 @@
         <v>3</v>
       </c>
       <c r="L34" s="5">
-        <f>SUM(B34:K34)</f>
+        <f t="shared" ref="L34:L65" si="2">SUM(B34:K34)</f>
         <v>36</v>
       </c>
       <c r="M34" s="6">
-        <f>10*L34/40</f>
+        <f t="shared" ref="M34:M65" si="3">10*L34/40</f>
         <v>9</v>
       </c>
     </row>
@@ -2434,11 +2431,11 @@
         <v>2</v>
       </c>
       <c r="L35" s="5">
-        <f>SUM(B35:K35)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="M35" s="6">
-        <f>10*L35/40</f>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
     </row>
@@ -2477,11 +2474,11 @@
         <v>2</v>
       </c>
       <c r="L36" s="5">
-        <f>SUM(B36:K36)</f>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="M36" s="6">
-        <f>10*L36/40</f>
+        <f t="shared" si="3"/>
         <v>7.25</v>
       </c>
     </row>
@@ -2520,11 +2517,11 @@
         <v>3</v>
       </c>
       <c r="L37" s="5">
-        <f>SUM(B37:K37)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="M37" s="6">
-        <f>10*L37/40</f>
+        <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
     </row>
@@ -2563,11 +2560,11 @@
         <v>3</v>
       </c>
       <c r="L38" s="5">
-        <f>SUM(B38:K38)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="M38" s="6">
-        <f>10*L38/40</f>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
     </row>
@@ -2606,11 +2603,11 @@
         <v>3</v>
       </c>
       <c r="L39" s="5">
-        <f>SUM(B39:K39)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="M39" s="6">
-        <f>10*L39/40</f>
+        <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
     </row>
@@ -2649,11 +2646,11 @@
         <v>3</v>
       </c>
       <c r="L40" s="5">
-        <f>SUM(B40:K40)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="M40" s="6">
-        <f>10*L40/40</f>
+        <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
     </row>
@@ -2692,11 +2689,11 @@
         <v>3</v>
       </c>
       <c r="L41" s="5">
-        <f>SUM(B41:K41)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="M41" s="6">
-        <f>10*L41/40</f>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
     </row>
@@ -2735,11 +2732,11 @@
         <v>3</v>
       </c>
       <c r="L42" s="5">
-        <f>SUM(B42:K42)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="M42" s="6">
-        <f>10*L42/40</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -2778,11 +2775,11 @@
         <v>3</v>
       </c>
       <c r="L43" s="5">
-        <f>SUM(B43:K43)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="M43" s="6">
-        <f>10*L43/40</f>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
@@ -2821,11 +2818,11 @@
         <v>1</v>
       </c>
       <c r="L44" s="5">
-        <f>SUM(B44:K44)</f>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="M44" s="6">
-        <f>10*L44/40</f>
+        <f t="shared" si="3"/>
         <v>6.75</v>
       </c>
     </row>
@@ -2864,11 +2861,11 @@
         <v>3</v>
       </c>
       <c r="L45" s="5">
-        <f>SUM(B45:K45)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="M45" s="6">
-        <f>10*L45/40</f>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
     </row>
@@ -2907,11 +2904,11 @@
         <v>2</v>
       </c>
       <c r="L46" s="5">
-        <f>SUM(B46:K46)</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="M46" s="6">
-        <f>10*L46/40</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -2950,11 +2947,11 @@
         <v>2</v>
       </c>
       <c r="L47" s="5">
-        <f>SUM(B47:K47)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="M47" s="6">
-        <f>10*L47/40</f>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
     </row>
@@ -2993,11 +2990,11 @@
         <v>2</v>
       </c>
       <c r="L48" s="5">
-        <f>SUM(B48:K48)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="M48" s="6">
-        <f>10*L48/40</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3036,11 +3033,11 @@
         <v>2</v>
       </c>
       <c r="L49" s="5">
-        <f>SUM(B49:K49)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="M49" s="6">
-        <f>10*L49/40</f>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
@@ -3079,11 +3076,11 @@
         <v>3</v>
       </c>
       <c r="L50" s="5">
-        <f>SUM(B50:K50)</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="M50" s="6">
-        <f>10*L50/40</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
     </row>
@@ -3122,11 +3119,11 @@
         <v>3</v>
       </c>
       <c r="L51" s="5">
-        <f>SUM(B51:K51)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="M51" s="6">
-        <f>10*L51/40</f>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
     </row>
@@ -3165,11 +3162,11 @@
         <v>4</v>
       </c>
       <c r="L52" s="5">
-        <f>SUM(B52:K52)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="M52" s="6">
-        <f>10*L52/40</f>
+        <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
     </row>
@@ -3208,11 +3205,11 @@
         <v>3</v>
       </c>
       <c r="L53" s="5">
-        <f>SUM(B53:K53)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="M53" s="6">
-        <f>10*L53/40</f>
+        <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
     </row>
@@ -3251,11 +3248,11 @@
         <v>3</v>
       </c>
       <c r="L54" s="5">
-        <f>SUM(B54:K54)</f>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="M54" s="6">
-        <f>10*L54/40</f>
+        <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
@@ -3294,11 +3291,11 @@
         <v>3</v>
       </c>
       <c r="L55" s="5">
-        <f>SUM(B55:K55)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="M55" s="6">
-        <f>10*L55/40</f>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
@@ -3337,11 +3334,11 @@
         <v>2</v>
       </c>
       <c r="L56" s="5">
-        <f>SUM(B56:K56)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="M56" s="6">
-        <f>10*L56/40</f>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
     </row>
@@ -3380,11 +3377,11 @@
         <v>3</v>
       </c>
       <c r="L57" s="5">
-        <f>SUM(B57:K57)</f>
+        <f t="shared" si="2"/>
         <v>38</v>
       </c>
       <c r="M57" s="6">
-        <f>10*L57/40</f>
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
     </row>
@@ -3423,11 +3420,11 @@
         <v>3</v>
       </c>
       <c r="L58" s="5">
-        <f>SUM(B58:K58)</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="M58" s="6">
-        <f>10*L58/40</f>
+        <f t="shared" si="3"/>
         <v>8.5</v>
       </c>
     </row>
@@ -3466,11 +3463,11 @@
         <v>3</v>
       </c>
       <c r="L59" s="5">
-        <f>SUM(B59:K59)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="M59" s="6">
-        <f>10*L59/40</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3509,11 +3506,11 @@
         <v>3</v>
       </c>
       <c r="L60" s="5">
-        <f>SUM(B60:K60)</f>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="M60" s="6">
-        <f>10*L60/40</f>
+        <f t="shared" si="3"/>
         <v>7.75</v>
       </c>
     </row>
@@ -3552,11 +3549,11 @@
         <v>3</v>
       </c>
       <c r="L61" s="5">
-        <f>SUM(B61:K61)</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="M61" s="6">
-        <f>10*L61/40</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3595,11 +3592,11 @@
         <v>1</v>
       </c>
       <c r="L62" s="5">
-        <f>SUM(B62:K62)</f>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="M62" s="6">
-        <f>10*L62/40</f>
+        <f t="shared" si="3"/>
         <v>8.75</v>
       </c>
     </row>
@@ -3638,11 +3635,11 @@
         <v>3</v>
       </c>
       <c r="L63" s="5">
-        <f>SUM(B63:K63)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="M63" s="6">
-        <f>10*L63/40</f>
+        <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
     </row>
@@ -3681,11 +3678,11 @@
         <v>4</v>
       </c>
       <c r="L64" s="5">
-        <f>SUM(B64:K64)</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="M64" s="6">
-        <f>10*L64/40</f>
+        <f t="shared" si="3"/>
         <v>8.25</v>
       </c>
     </row>
@@ -3724,11 +3721,11 @@
         <v>3</v>
       </c>
       <c r="L65" s="5">
-        <f>SUM(B65:K65)</f>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
       <c r="M65" s="6">
-        <f>10*L65/40</f>
+        <f t="shared" si="3"/>
         <v>9.25</v>
       </c>
     </row>
@@ -3767,11 +3764,11 @@
         <v>3</v>
       </c>
       <c r="L66" s="5">
-        <f>SUM(B66:K66)</f>
+        <f t="shared" ref="L66:L97" si="4">SUM(B66:K66)</f>
         <v>35</v>
       </c>
       <c r="M66" s="6">
-        <f>10*L66/40</f>
+        <f t="shared" ref="M66:M97" si="5">10*L66/40</f>
         <v>8.75</v>
       </c>
     </row>
@@ -3810,11 +3807,11 @@
         <v>3</v>
       </c>
       <c r="L67" s="5">
-        <f>SUM(B67:K67)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="M67" s="6">
-        <f>10*L67/40</f>
+        <f t="shared" si="5"/>
         <v>6.5</v>
       </c>
     </row>
@@ -3853,11 +3850,11 @@
         <v>2</v>
       </c>
       <c r="L68" s="5">
-        <f>SUM(B68:K68)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="M68" s="6">
-        <f>10*L68/40</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
     </row>
@@ -3896,11 +3893,11 @@
         <v>2</v>
       </c>
       <c r="L69" s="5">
-        <f>SUM(B69:K69)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="M69" s="6">
-        <f>10*L69/40</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -3939,11 +3936,11 @@
         <v>1</v>
       </c>
       <c r="L70" s="5">
-        <f>SUM(B70:K70)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M70" s="6">
-        <f>10*L70/40</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -3982,11 +3979,11 @@
         <v>4</v>
       </c>
       <c r="L71" s="5">
-        <f>SUM(B71:K71)</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="M71" s="6">
-        <f>10*L71/40</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
     </row>
@@ -4025,11 +4022,11 @@
         <v>3</v>
       </c>
       <c r="L72" s="5">
-        <f>SUM(B72:K72)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="M72" s="6">
-        <f>10*L72/40</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
     </row>
@@ -4068,11 +4065,11 @@
         <v>3</v>
       </c>
       <c r="L73" s="5">
-        <f>SUM(B73:K73)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M73" s="6">
-        <f>10*L73/40</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
     </row>
@@ -4111,11 +4108,11 @@
         <v>4</v>
       </c>
       <c r="L74" s="5">
-        <f>SUM(B74:K74)</f>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="M74" s="6">
-        <f>10*L74/40</f>
+        <f t="shared" si="5"/>
         <v>9.75</v>
       </c>
     </row>
@@ -4154,11 +4151,11 @@
         <v>2</v>
       </c>
       <c r="L75" s="5">
-        <f>SUM(B75:K75)</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M75" s="6">
-        <f>10*L75/40</f>
+        <f t="shared" si="5"/>
         <v>8.25</v>
       </c>
     </row>
@@ -4197,11 +4194,11 @@
         <v>3</v>
       </c>
       <c r="L76" s="5">
-        <f>SUM(B76:K76)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="M76" s="6">
-        <f>10*L76/40</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
     </row>
@@ -4240,11 +4237,11 @@
         <v>4</v>
       </c>
       <c r="L77" s="5">
-        <f>SUM(B77:K77)</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="M77" s="6">
-        <f>10*L77/40</f>
+        <f t="shared" si="5"/>
         <v>8.75</v>
       </c>
     </row>
@@ -4283,11 +4280,11 @@
         <v>3</v>
       </c>
       <c r="L78" s="5">
-        <f>SUM(B78:K78)</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="M78" s="6">
-        <f>10*L78/40</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
     </row>
@@ -4326,11 +4323,11 @@
         <v>3</v>
       </c>
       <c r="L79" s="5">
-        <f>SUM(B79:K79)</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="M79" s="6">
-        <f>10*L79/40</f>
+        <f t="shared" si="5"/>
         <v>8.75</v>
       </c>
     </row>
@@ -4369,11 +4366,11 @@
         <v>3</v>
       </c>
       <c r="L80" s="5">
-        <f>SUM(B80:K80)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="M80" s="6">
-        <f>10*L80/40</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -4412,11 +4409,11 @@
         <v>3</v>
       </c>
       <c r="L81" s="5">
-        <f>SUM(B81:K81)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M81" s="6">
-        <f>10*L81/40</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
     </row>
@@ -4455,11 +4452,11 @@
         <v>3</v>
       </c>
       <c r="L82" s="5">
-        <f>SUM(B82:K82)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M82" s="6">
-        <f>10*L82/40</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
     </row>
@@ -4498,11 +4495,11 @@
         <v>2</v>
       </c>
       <c r="L83" s="5">
-        <f>SUM(B83:K83)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="M83" s="6">
-        <f>10*L83/40</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
     </row>
@@ -4541,11 +4538,11 @@
         <v>3</v>
       </c>
       <c r="L84" s="5">
-        <f>SUM(B84:K84)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M84" s="6">
-        <f>10*L84/40</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
     </row>
@@ -4584,11 +4581,11 @@
         <v>2</v>
       </c>
       <c r="L85" s="5">
-        <f>SUM(B85:K85)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="M85" s="6">
-        <f>10*L85/40</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -4627,11 +4624,11 @@
         <v>3</v>
       </c>
       <c r="L86" s="5">
-        <f>SUM(B86:K86)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M86" s="6">
-        <f>10*L86/40</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
     </row>
@@ -4670,11 +4667,11 @@
         <v>3</v>
       </c>
       <c r="L87" s="5">
-        <f>SUM(B87:K87)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M87" s="6">
-        <f>10*L87/40</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
     </row>
@@ -4713,11 +4710,11 @@
         <v>3</v>
       </c>
       <c r="L88" s="5">
-        <f>SUM(B88:K88)</f>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="M88" s="6">
-        <f>10*L88/40</f>
+        <f t="shared" si="5"/>
         <v>8</v>
       </c>
     </row>
@@ -4756,11 +4753,11 @@
         <v>3</v>
       </c>
       <c r="L89" s="5">
-        <f>SUM(B89:K89)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="M89" s="6">
-        <f>10*L89/40</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -4799,11 +4796,11 @@
         <v>2</v>
       </c>
       <c r="L90" s="5">
-        <f>SUM(B90:K90)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="M90" s="6">
-        <f>10*L90/40</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
     </row>
@@ -4842,11 +4839,11 @@
         <v>4</v>
       </c>
       <c r="L91" s="5">
-        <f>SUM(B91:K91)</f>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="M91" s="6">
-        <f>10*L91/40</f>
+        <f t="shared" si="5"/>
         <v>9.5</v>
       </c>
     </row>
@@ -4885,11 +4882,11 @@
         <v>3</v>
       </c>
       <c r="L92" s="5">
-        <f>SUM(B92:K92)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M92" s="6">
-        <f>10*L92/40</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
     </row>
@@ -4928,11 +4925,11 @@
         <v>4</v>
       </c>
       <c r="L93" s="5">
-        <f>SUM(B93:K93)</f>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="M93" s="6">
-        <f>10*L93/40</f>
+        <f t="shared" si="5"/>
         <v>9.25</v>
       </c>
     </row>
@@ -4971,11 +4968,11 @@
         <v>2</v>
       </c>
       <c r="L94" s="5">
-        <f>SUM(B94:K94)</f>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="M94" s="6">
-        <f>10*L94/40</f>
+        <f t="shared" si="5"/>
         <v>8.25</v>
       </c>
     </row>
@@ -5014,11 +5011,11 @@
         <v>3</v>
       </c>
       <c r="L95" s="5">
-        <f>SUM(B95:K95)</f>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="M95" s="6">
-        <f>10*L95/40</f>
+        <f t="shared" si="5"/>
         <v>8.75</v>
       </c>
     </row>
@@ -5057,11 +5054,11 @@
         <v>3</v>
       </c>
       <c r="L96" s="5">
-        <f>SUM(B96:K96)</f>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="M96" s="6">
-        <f>10*L96/40</f>
+        <f t="shared" si="5"/>
         <v>9</v>
       </c>
     </row>
@@ -5100,11 +5097,11 @@
         <v>3</v>
       </c>
       <c r="L97" s="5">
-        <f>SUM(B97:K97)</f>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="M97" s="6">
-        <f>10*L97/40</f>
+        <f t="shared" si="5"/>
         <v>8.5</v>
       </c>
     </row>
@@ -5143,11 +5140,11 @@
         <v>3</v>
       </c>
       <c r="L98" s="5">
-        <f>SUM(B98:K98)</f>
+        <f t="shared" ref="L98:L129" si="6">SUM(B98:K98)</f>
         <v>34</v>
       </c>
       <c r="M98" s="6">
-        <f>10*L98/40</f>
+        <f t="shared" ref="M98:M129" si="7">10*L98/40</f>
         <v>8.5</v>
       </c>
     </row>
@@ -5186,11 +5183,11 @@
         <v>3</v>
       </c>
       <c r="L99" s="5">
-        <f>SUM(B99:K99)</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="M99" s="6">
-        <f>10*L99/40</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -5229,11 +5226,11 @@
         <v>3</v>
       </c>
       <c r="L100" s="5">
-        <f>SUM(B100:K100)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="M100" s="6">
-        <f>10*L100/40</f>
+        <f t="shared" si="7"/>
         <v>8.25</v>
       </c>
     </row>
@@ -5272,11 +5269,11 @@
         <v>3</v>
       </c>
       <c r="L101" s="5">
-        <f>SUM(B101:K101)</f>
+        <f t="shared" si="6"/>
         <v>36</v>
       </c>
       <c r="M101" s="6">
-        <f>10*L101/40</f>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
     </row>
@@ -5315,11 +5312,11 @@
         <v>3</v>
       </c>
       <c r="L102" s="5">
-        <f>SUM(B102:K102)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="M102" s="6">
-        <f>10*L102/40</f>
+        <f t="shared" si="7"/>
         <v>8.25</v>
       </c>
     </row>
@@ -5328,51 +5325,51 @@
         <v>11</v>
       </c>
       <c r="B103" s="8">
-        <f>AVERAGE(B2:B102)</f>
+        <f t="shared" ref="B103:M103" si="8">AVERAGE(B2:B102)</f>
         <v>3.8316831683168315</v>
       </c>
       <c r="C103" s="8">
-        <f>AVERAGE(C2:C102)</f>
+        <f t="shared" si="8"/>
         <v>3.6237623762376239</v>
       </c>
       <c r="D103" s="8">
-        <f>AVERAGE(D2:D102)</f>
+        <f t="shared" si="8"/>
         <v>3.8415841584158414</v>
       </c>
       <c r="E103" s="8">
-        <f>AVERAGE(E2:E102)</f>
+        <f t="shared" si="8"/>
         <v>2.6435643564356437</v>
       </c>
       <c r="F103" s="8">
-        <f>AVERAGE(F2:F102)</f>
+        <f t="shared" si="8"/>
         <v>3.8514851485148514</v>
       </c>
       <c r="G103" s="8">
-        <f>AVERAGE(G2:G102)</f>
+        <f t="shared" si="8"/>
         <v>2.9009900990099009</v>
       </c>
       <c r="H103" s="8">
-        <f>AVERAGE(H2:H102)</f>
+        <f t="shared" si="8"/>
         <v>3.9207920792079207</v>
       </c>
       <c r="I103" s="8">
-        <f>AVERAGE(I2:I102)</f>
+        <f t="shared" si="8"/>
         <v>3.9009900990099009</v>
       </c>
       <c r="J103" s="8">
-        <f>AVERAGE(J2:J102)</f>
+        <f t="shared" si="8"/>
         <v>3.2277227722772279</v>
       </c>
       <c r="K103" s="8">
-        <f>AVERAGE(K2:K102)</f>
+        <f t="shared" si="8"/>
         <v>2.891089108910891</v>
       </c>
       <c r="L103" s="8">
-        <f>AVERAGE(L2:L102)</f>
+        <f t="shared" si="8"/>
         <v>34.633663366336634</v>
       </c>
       <c r="M103" s="8">
-        <f>AVERAGE(M2:M102)</f>
+        <f t="shared" si="8"/>
         <v>8.6584158415841586</v>
       </c>
     </row>
@@ -5383,10 +5380,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8FFD42C-C642-994A-8583-FA68F08909AF}">
-  <dimension ref="A1:M92"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5397,7 +5394,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>0</v>
@@ -8266,11 +8263,11 @@
         <v>2</v>
       </c>
       <c r="L67" s="16">
-        <f t="shared" ref="L67:L91" si="2">SUM(B67:K67)</f>
+        <f t="shared" ref="L67:L90" si="2">SUM(B67:K67)</f>
         <v>36</v>
       </c>
       <c r="M67" s="17">
-        <f t="shared" ref="M67:M91" si="3">10*L67/40</f>
+        <f t="shared" ref="M67:M90" si="3">10*L67/40</f>
         <v>9</v>
       </c>
     </row>
@@ -8878,16 +8875,16 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="15" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B82" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" s="15">
         <v>3</v>
       </c>
       <c r="D82" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" s="15">
         <v>2</v>
@@ -8896,50 +8893,50 @@
         <v>4</v>
       </c>
       <c r="G82" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H82" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I82" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J82" s="15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K82" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L82" s="16">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="M82" s="17">
         <f t="shared" si="3"/>
-        <v>3.75</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="15" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="B83" s="15">
         <v>4</v>
       </c>
       <c r="C83" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" s="15">
         <v>3</v>
       </c>
       <c r="E83" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" s="15">
         <v>4</v>
       </c>
       <c r="G83" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" s="15">
         <v>4</v>
@@ -8948,41 +8945,41 @@
         <v>4</v>
       </c>
       <c r="J83" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K83" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L83" s="16">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M83" s="17">
         <f t="shared" si="3"/>
-        <v>8.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="15" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B84" s="15">
         <v>4</v>
       </c>
       <c r="C84" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D84" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E84" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F84" s="15">
         <v>4</v>
       </c>
       <c r="G84" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H84" s="15">
         <v>4</v>
@@ -8991,41 +8988,41 @@
         <v>4</v>
       </c>
       <c r="J84" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K84" s="15">
         <v>4</v>
       </c>
       <c r="L84" s="16">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M84" s="17">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="15" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="B85" s="15">
         <v>4</v>
       </c>
       <c r="C85" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" s="15">
         <v>4</v>
       </c>
       <c r="E85" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F85" s="15">
         <v>4</v>
       </c>
       <c r="G85" s="15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H85" s="15">
         <v>4</v>
@@ -9037,20 +9034,20 @@
         <v>4</v>
       </c>
       <c r="K85" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L85" s="16">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="M85" s="17">
         <f t="shared" si="3"/>
-        <v>8.25</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="15" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="B86" s="15">
         <v>4</v>
@@ -9062,7 +9059,7 @@
         <v>4</v>
       </c>
       <c r="E86" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F86" s="15">
         <v>4</v>
@@ -9077,23 +9074,23 @@
         <v>4</v>
       </c>
       <c r="J86" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K86" s="15">
         <v>3</v>
       </c>
       <c r="L86" s="16">
         <f t="shared" si="2"/>
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M86" s="17">
         <f t="shared" si="3"/>
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="15" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="B87" s="15">
         <v>4</v>
@@ -9111,13 +9108,13 @@
         <v>4</v>
       </c>
       <c r="G87" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H87" s="15">
         <v>4</v>
       </c>
       <c r="I87" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J87" s="15">
         <v>3</v>
@@ -9127,68 +9124,68 @@
       </c>
       <c r="L87" s="16">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M87" s="17">
         <f t="shared" si="3"/>
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="15" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="B88" s="15">
         <v>4</v>
       </c>
       <c r="C88" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D88" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E88" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F88" s="15">
         <v>4</v>
       </c>
       <c r="G88" s="15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H88" s="15">
         <v>4</v>
       </c>
       <c r="I88" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J88" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K88" s="15">
         <v>3</v>
       </c>
       <c r="L88" s="16">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M88" s="17">
         <f t="shared" si="3"/>
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="15" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="B89" s="15">
         <v>4</v>
       </c>
       <c r="C89" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" s="15">
         <v>2</v>
@@ -9197,13 +9194,13 @@
         <v>4</v>
       </c>
       <c r="G89" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H89" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I89" s="15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J89" s="15">
         <v>4</v>
@@ -9213,16 +9210,16 @@
       </c>
       <c r="L89" s="16">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M89" s="17">
         <f t="shared" si="3"/>
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B90" s="15">
         <v>4</v>
@@ -9234,7 +9231,7 @@
         <v>4</v>
       </c>
       <c r="E90" s="15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F90" s="15">
         <v>4</v>
@@ -9243,10 +9240,10 @@
         <v>4</v>
       </c>
       <c r="H90" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90" s="15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J90" s="15">
         <v>4</v>
@@ -9256,107 +9253,64 @@
       </c>
       <c r="L90" s="16">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M90" s="17">
         <f t="shared" si="3"/>
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A91" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" s="15">
-        <v>4</v>
-      </c>
-      <c r="C91" s="15">
-        <v>4</v>
-      </c>
-      <c r="D91" s="15">
-        <v>4</v>
-      </c>
-      <c r="E91" s="15">
-        <v>4</v>
-      </c>
-      <c r="F91" s="15">
-        <v>4</v>
-      </c>
-      <c r="G91" s="15">
-        <v>4</v>
-      </c>
-      <c r="H91" s="15">
-        <v>4</v>
-      </c>
-      <c r="I91" s="15">
-        <v>4</v>
-      </c>
-      <c r="J91" s="15">
-        <v>4</v>
-      </c>
-      <c r="K91" s="15">
-        <v>3</v>
-      </c>
-      <c r="L91" s="16">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-      <c r="M91" s="17">
-        <f t="shared" si="3"/>
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A92" s="18" t="s">
+      <c r="A91" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B92" s="11">
-        <f>AVERAGE(B2:B91)</f>
-        <v>3.7666666666666666</v>
-      </c>
-      <c r="C92" s="11">
-        <f t="shared" ref="C92:M92" si="4">AVERAGE(C2:C91)</f>
-        <v>3.4222222222222221</v>
-      </c>
-      <c r="D92" s="11">
+      <c r="B91" s="11">
+        <f>AVERAGE(B2:B90)</f>
+        <v>3.7752808988764044</v>
+      </c>
+      <c r="C91" s="11">
+        <f t="shared" ref="C91:M91" si="4">AVERAGE(C2:C90)</f>
+        <v>3.4269662921348316</v>
+      </c>
+      <c r="D91" s="11">
         <f t="shared" si="4"/>
-        <v>3.4555555555555557</v>
-      </c>
-      <c r="E92" s="11">
+        <v>3.4719101123595504</v>
+      </c>
+      <c r="E91" s="11">
         <f t="shared" si="4"/>
-        <v>2.7555555555555555</v>
-      </c>
-      <c r="F92" s="11">
+        <v>2.7640449438202248</v>
+      </c>
+      <c r="F91" s="11">
         <f t="shared" si="4"/>
-        <v>3.7888888888888888</v>
-      </c>
-      <c r="G92" s="11">
+        <v>3.7865168539325844</v>
+      </c>
+      <c r="G91" s="11">
         <f t="shared" si="4"/>
-        <v>2.7222222222222223</v>
-      </c>
-      <c r="H92" s="11">
+        <v>2.7415730337078652</v>
+      </c>
+      <c r="H91" s="11">
         <f t="shared" si="4"/>
-        <v>3.7</v>
-      </c>
-      <c r="I92" s="11">
+        <v>3.7415730337078652</v>
+      </c>
+      <c r="I91" s="11">
         <f t="shared" si="4"/>
-        <v>3.7111111111111112</v>
-      </c>
-      <c r="J92" s="11">
+        <v>3.7528089887640448</v>
+      </c>
+      <c r="J91" s="11">
         <f t="shared" si="4"/>
-        <v>3.1555555555555554</v>
-      </c>
-      <c r="K92" s="11">
+        <v>3.191011235955056</v>
+      </c>
+      <c r="K91" s="11">
         <f t="shared" si="4"/>
-        <v>1.7444444444444445</v>
-      </c>
-      <c r="L92" s="11">
+        <v>1.7640449438202248</v>
+      </c>
+      <c r="L91" s="11">
         <f t="shared" si="4"/>
-        <v>32.222222222222221</v>
-      </c>
-      <c r="M92" s="11">
+        <v>32.415730337078649</v>
+      </c>
+      <c r="M91" s="11">
         <f t="shared" si="4"/>
-        <v>8.0555555555555554</v>
+        <v>8.1039325842696623</v>
       </c>
     </row>
   </sheetData>
@@ -9366,10 +9320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BDB4377-8F20-AC4C-B0D6-0643CBC03C62}">
-  <dimension ref="A1:D118"/>
+  <dimension ref="A1:D117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D120" sqref="D120"/>
+      <selection activeCell="C117" sqref="C117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9380,16 +9334,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="18" t="s">
         <v>132</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -10510,7 +10464,7 @@
         <v>6.5</v>
       </c>
       <c r="D67" s="19">
-        <f t="shared" ref="D67:D117" si="1">IF(AND(B67&lt;&gt;"", C67&lt;&gt;""), C67-B67, "")</f>
+        <f t="shared" ref="D67:D116" si="1">IF(AND(B67&lt;&gt;"", C67&lt;&gt;""), C67-B67, "")</f>
         <v>0</v>
       </c>
     </row>
@@ -11340,7 +11294,7 @@
       </c>
       <c r="C116" s="19">
         <f>_xlfn.XLOOKUP(A116, Posttest!A:A, Posttest!M:M, "")</f>
-        <v>3.75</v>
+        <v>9.25</v>
       </c>
       <c r="D116" s="19" t="str">
         <f t="shared" si="1"/>
@@ -11348,41 +11302,24 @@
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A117" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="B117" s="19" t="str">
-        <f>_xlfn.XLOOKUP(A117, Nulmeting!A:A, Nulmeting!M:M, "")</f>
-        <v/>
+      <c r="A117" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="19">
+        <f>AVERAGE(B2:B116)</f>
+        <v>8.6584158415841586</v>
       </c>
       <c r="C117" s="19">
-        <f>_xlfn.XLOOKUP(A117, Posttest!A:A, Posttest!M:M, "")</f>
-        <v>9.25</v>
-      </c>
-      <c r="D117" s="19" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A118" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B118" s="19">
-        <f t="shared" ref="B118:C118" si="2">AVERAGE(B2:B117)</f>
-        <v>8.6584158415841586</v>
-      </c>
-      <c r="C118" s="19">
-        <f t="shared" si="2"/>
-        <v>8.0555555555555554</v>
-      </c>
-      <c r="D118" s="19">
-        <f>AVERAGE(D2:D117)</f>
+        <f>AVERAGE(C2:C116)</f>
+        <v>8.1039325842696623</v>
+      </c>
+      <c r="D117" s="19">
+        <f>AVERAGE(D2:D116)</f>
         <v>-0.53</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576 B118:C118">
+  <conditionalFormatting sqref="B117:C117 D1:D1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="-10"/>
@@ -11403,7 +11340,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11413,16 +11350,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>138</v>
-      </c>
       <c r="D1" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -11434,12 +11371,12 @@
         <v>3.8316831683168315</v>
       </c>
       <c r="C2" s="10">
-        <f>Posttest!B92</f>
-        <v>3.7666666666666666</v>
+        <f>Posttest!B91</f>
+        <v>3.7752808988764044</v>
       </c>
       <c r="D2" s="10">
         <f>C2-B2</f>
-        <v>-6.5016501650164926E-2</v>
+        <v>-5.6402269440427144E-2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -11451,12 +11388,12 @@
         <v>3.6237623762376239</v>
       </c>
       <c r="C3" s="10">
-        <f>Posttest!C92</f>
-        <v>3.4222222222222221</v>
+        <f>Posttest!C91</f>
+        <v>3.4269662921348316</v>
       </c>
       <c r="D3" s="10">
         <f t="shared" ref="D3:D11" si="0">C3-B3</f>
-        <v>-0.20154015401540182</v>
+        <v>-0.19679608410279226</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -11468,12 +11405,12 @@
         <v>3.8415841584158414</v>
       </c>
       <c r="C4" s="10">
-        <f>Posttest!D92</f>
-        <v>3.4555555555555557</v>
+        <f>Posttest!D91</f>
+        <v>3.4719101123595504</v>
       </c>
       <c r="D4" s="10">
         <f t="shared" si="0"/>
-        <v>-0.38602860286028573</v>
+        <v>-0.36967404605629106</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -11485,12 +11422,12 @@
         <v>2.6435643564356437</v>
       </c>
       <c r="C5" s="10">
-        <f>Posttest!E92</f>
-        <v>2.7555555555555555</v>
+        <f>Posttest!E91</f>
+        <v>2.7640449438202248</v>
       </c>
       <c r="D5" s="10">
         <f t="shared" si="0"/>
-        <v>0.11199119911991184</v>
+        <v>0.12048058738458112</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -11502,12 +11439,12 @@
         <v>3.8514851485148514</v>
       </c>
       <c r="C6" s="10">
-        <f>Posttest!F92</f>
-        <v>3.7888888888888888</v>
+        <f>Posttest!F91</f>
+        <v>3.7865168539325844</v>
       </c>
       <c r="D6" s="10">
         <f t="shared" si="0"/>
-        <v>-6.2596259625962603E-2</v>
+        <v>-6.4968294582266939E-2</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -11519,29 +11456,29 @@
         <v>2.9009900990099009</v>
       </c>
       <c r="C7" s="10">
-        <f>Posttest!G92</f>
-        <v>2.7222222222222223</v>
+        <f>Posttest!G91</f>
+        <v>2.7415730337078652</v>
       </c>
       <c r="D7" s="10">
         <f t="shared" si="0"/>
-        <v>-0.17876787678767858</v>
+        <v>-0.1594170653020357</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B8" s="10">
         <f>Nulmeting!H103</f>
         <v>3.9207920792079207</v>
       </c>
       <c r="C8" s="10">
-        <f>Posttest!H92</f>
-        <v>3.7</v>
+        <f>Posttest!H91</f>
+        <v>3.7415730337078652</v>
       </c>
       <c r="D8" s="10">
         <f t="shared" si="0"/>
-        <v>-0.22079207920792054</v>
+        <v>-0.17921904550005552</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -11553,12 +11490,12 @@
         <v>3.9009900990099009</v>
       </c>
       <c r="C9" s="10">
-        <f>Posttest!I92</f>
-        <v>3.7111111111111112</v>
+        <f>Posttest!I91</f>
+        <v>3.7528089887640448</v>
       </c>
       <c r="D9" s="10">
         <f t="shared" si="0"/>
-        <v>-0.18987898789878965</v>
+        <v>-0.14818111024585612</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -11570,12 +11507,12 @@
         <v>3.2277227722772279</v>
       </c>
       <c r="C10" s="10">
-        <f>Posttest!J92</f>
-        <v>3.1555555555555554</v>
+        <f>Posttest!J91</f>
+        <v>3.191011235955056</v>
       </c>
       <c r="D10" s="10">
         <f t="shared" si="0"/>
-        <v>-7.2167216721672478E-2</v>
+        <v>-3.6711536322171945E-2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -11587,12 +11524,12 @@
         <v>2.891089108910891</v>
       </c>
       <c r="C11" s="10">
-        <f>Posttest!K92</f>
-        <v>1.7444444444444445</v>
+        <f>Posttest!K91</f>
+        <v>1.7640449438202248</v>
       </c>
       <c r="D11" s="10">
         <f t="shared" si="0"/>
-        <v>-1.1466446644664465</v>
+        <v>-1.1270441650906662</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
